--- a/outputs-GTDB-r202/o__Peptostreptococcales.xlsx
+++ b/outputs-GTDB-r202/o__Peptostreptococcales.xlsx
@@ -1302,7 +1302,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>f__Acidaminobacteraceae</t>
+          <t>f__Acidaminobacteraceae(reject)</t>
         </is>
       </c>
     </row>
